--- a/master_data/brands.xlsx
+++ b/master_data/brands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/cars-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9BF4AC8-93C9-438F-81D6-DAE52F5A1E52}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A6D5F6-4703-43ED-AB27-AC0D05191859}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84D6A1A7-8158-4617-80DE-5AE0A8A75832}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
   <si>
     <t>Ford</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>Geo</t>
+  </si>
+  <si>
+    <t>Oldsmobile</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63526A8B-2D2B-4B9F-81C9-C50852206B31}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,6 +1091,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/brands.xlsx
+++ b/master_data/brands.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/cars-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A6D5F6-4703-43ED-AB27-AC0D05191859}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C2AB39-929E-410F-90DE-1F0751EF669F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84D6A1A7-8158-4617-80DE-5AE0A8A75832}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
   <si>
     <t>Ford</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Oldsmobile</t>
+  </si>
+  <si>
+    <t>Isuzu</t>
   </si>
 </sst>
 </file>
@@ -592,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63526A8B-2D2B-4B9F-81C9-C50852206B31}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,6 +1102,14 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/brands.xlsx
+++ b/master_data/brands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/cars-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7C2AB39-929E-410F-90DE-1F0751EF669F}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769B66C4-8ADF-4B61-81BF-ACF8D0473E74}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84D6A1A7-8158-4617-80DE-5AE0A8A75832}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Ford</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>Isuzu</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
   </si>
 </sst>
 </file>
@@ -595,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63526A8B-2D2B-4B9F-81C9-C50852206B31}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,6 +1113,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/master_data/brands.xlsx
+++ b/master_data/brands.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/cars-data-cleaning/master_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{769B66C4-8ADF-4B61-81BF-ACF8D0473E74}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{7E1A156C-EC19-4F5B-A678-ECE8200CBF37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9FDCEC-02C4-44DF-BA14-AB82C4188E92}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84D6A1A7-8158-4617-80DE-5AE0A8A75832}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>Ford</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Eagle</t>
   </si>
 </sst>
 </file>
@@ -295,10 +298,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63526A8B-2D2B-4B9F-81C9-C50852206B31}">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1121,6 +1120,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
